--- a/files/gastos.xlsx
+++ b/files/gastos.xlsx
@@ -122,6 +122,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="27393900" cy="11049000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,7 +1488,21 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>29379.9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A62:B62"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>